--- a/data/out/standings_eu_uefa.xlsx
+++ b/data/out/standings_eu_uefa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,52 +446,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>change_num</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>goal_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>home_team</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>away_team</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>scorer_team</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>new_top_teams</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>3rd</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>scorer_nationality</t>
         </is>
       </c>
     </row>
@@ -505,37 +505,39 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['France', 'Denmark', 'Belgium']</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Belgium', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -550,44 +552,42 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>32</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Yugoslavia</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['France', 'Yugoslavia', 'Belgium']</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>['Belgium', 'France', 'Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -599,30 +599,32 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>59</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+      <c r="E4" t="n">
+        <v>39</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Denmark', 'Belgium']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Belgium', 'France', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -632,14 +634,10 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -647,45 +645,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain', 'West Germany']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>['Belgium', 'France', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -693,83 +699,99 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>59</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany', 'Italy']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>['Belgium', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union', 'Netherlands']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>['Belgium', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -777,207 +799,227 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['France', 'Sweden', 'Denmark']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>['Belgium', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>77</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['CIS', 'Netherlands', 'Germany']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>['Belgium', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>84</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CIS</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Scotland', 'Netherlands', 'Germany']</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>['Belgium', 'France', 'Denmark']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>['Denmark', 'France', 'Belgium']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1996</v>
+        <v>1984</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['France', 'Bulgaria']</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>['Spain', 'West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -985,52 +1027,48 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Spain', 'Bulgaria']</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['Italy', 'Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1041,381 +1079,377 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['France', 'Spain']</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Republic of Ireland', 'Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['France', 'Bulgaria']</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Denmark', 'France', 'Sweden']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['France', 'Spain']</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Germany', 'CIS', 'Netherlands']</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>CIS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>Germany</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>88</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>53</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>72</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1427,59 +1461,57 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>84</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>['Scotland', 'Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1487,103 +1519,87 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['England', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>['Portugal', 'England']</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Romania']</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1591,41 +1607,45 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1636,209 +1656,213 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>95</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>63</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>69</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>84</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1846,350 +1870,328 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
-      </c>
-      <c r="E31" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>90</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Spain', 'France']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Greece']</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>['France', 'England']</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>85</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="D34" t="n">
-        <v>40</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+      <c r="E34" t="n">
+        <v>88</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Denmark']</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Germany']</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>22</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2197,41 +2199,45 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>35</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2242,226 +2248,226 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>89</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>41</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>45</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>48</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>54</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>71</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2469,41 +2475,45 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>89</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2511,41 +2521,43 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>['Denmark', 'Germany']</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2556,48 +2568,42 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>47</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2605,51 +2611,45 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="D47" t="n">
-        <v>24</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+      <c r="E47" t="n">
+        <v>70</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2657,93 +2657,91 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
         <v>3</v>
       </c>
-      <c r="D48" t="n">
-        <v>74</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+      <c r="E48" t="n">
+        <v>77</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>88</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2754,540 +2752,540 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>['Spain', 'Italy']</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
+          <t>['FR Yugoslavia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>95</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>['France', 'Switzerland']</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>['England', 'Slovakia']</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>57</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>['Poland', 'Germany']</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>26</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>62</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>40</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>94</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>46</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>68</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3295,249 +3293,255 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>73</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>76</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>79</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>84</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>['Spain', 'Sweden']</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
+          <t>['Denmark', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>['France', 'Germany']</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3545,250 +3549,222 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
-      </c>
-      <c r="E68" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>30</v>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
         <v>2</v>
       </c>
-      <c r="D69" t="n">
-        <v>47</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+      <c r="E69" t="n">
+        <v>35</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['France', 'Hungary']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
         <v>3</v>
       </c>
-      <c r="D70" t="n">
-        <v>60</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+      <c r="E70" t="n">
+        <v>77</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
         <v>4</v>
       </c>
-      <c r="D71" t="n">
-        <v>66</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+      <c r="E71" t="n">
+        <v>84</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>['France', 'Portugal']</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3798,258 +3774,244 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>84</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>89</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Germany']</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
+          <t>['Germany', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>['Spain', 'Italy']</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>55</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>25</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="D77" t="n">
-        <v>98</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+      <c r="E77" t="n">
+        <v>54</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['Italy', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>['Spain', 'Italy']</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4057,41 +4019,45 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>62</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4102,638 +4068,3120 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>18</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>87</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>['England', 'Denmark']</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>['England', 'Slovenia']</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>['France', 'Netherlands']</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>19</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
         <v>2</v>
       </c>
-      <c r="D84" t="n">
-        <v>47</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+      <c r="E84" t="n">
+        <v>24</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
         <v>3</v>
       </c>
-      <c r="D85" t="n">
-        <v>59</v>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="n">
+        <v>28</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
         <v>4</v>
       </c>
-      <c r="D86" t="n">
-        <v>75</v>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" t="n">
+        <v>74</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
         <v>5</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>80</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>['Romania', 'Belgium']</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>24</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>35</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="D90" t="n">
-        <v>37</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+      <c r="E90" t="n">
+        <v>88</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>90</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['Italy', 'Spain']</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['France', 'England']</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'France']</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['England', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['Wales', 'England']</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>20</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['Wales', 'England']</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>67</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['Wales', 'England']</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['Germany', 'Poland']</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Italy']</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Iceland']</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>62</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>94</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Iceland']</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['Wales', 'Italy']</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Finland']</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['Austria', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['England', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>30</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>48</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>56</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>59</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>61</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>67</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>71</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>84</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>94</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>['Spain', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>['Germany', 'France']</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>['France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>31</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>['France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>47</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>['France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>47</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>['Hungary', 'France']</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>60</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>['France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>66</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>['Germany', 'France']</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>68</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>['France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>84</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>['Germany', 'France']</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
         <v>2024</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Germany']</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>['Italy', 'Spain']</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>55</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>98</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>['Italy', 'Spain']</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>['Denmark', 'England']</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>18</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'England']</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>34</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>['Denmark', 'England']</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>69</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'England']</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>95</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'England']</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>47</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>56</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>59</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>75</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>79</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>['France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>80</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>['France', 'Austria']</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Romania']</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>24</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>37</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Romania']</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
         <v>0</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Turkey']</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>['Turkey', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
